--- a/_3ПКС-120/3ПКС-120_Сети.xlsx
+++ b/_3ПКС-120/3ПКС-120_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0\3ПКС-120\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_3ПКС-120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF2E81F-8412-4D59-8161-6F77A52F87F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD71459-C4F3-4F79-AC86-3F2CEF2406F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Абакумов Кирилл</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>Лаб_9</t>
+  </si>
+  <si>
+    <t>Лаб_10</t>
+  </si>
+  <si>
+    <t>Лаб_11</t>
+  </si>
+  <si>
+    <t>Лаб_12</t>
   </si>
 </sst>
 </file>
@@ -486,17 +495,23 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="9" width="5.1796875" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="5.90625" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="6.90625" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
@@ -523,35 +538,32 @@
       <c r="W1" s="5"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="O3" t="s">
+      <c r="G3" t="s">
         <v>26</v>
       </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -562,14 +574,14 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
       <c r="I5" s="2"/>
-      <c r="O5">
+      <c r="J5">
         <v>5</v>
       </c>
     </row>
@@ -580,11 +592,6 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
@@ -595,22 +602,19 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -619,19 +623,14 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -640,11 +639,6 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
@@ -655,11 +649,6 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
@@ -670,11 +659,6 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
@@ -685,11 +669,6 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -700,11 +679,6 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
@@ -715,11 +689,6 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
@@ -730,11 +699,6 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
@@ -745,182 +709,122 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="E17">
+        <v>5</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="M17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="C20">
+        <v>5</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="K20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="E21">
+        <v>5</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="M21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="D24">
+        <v>5</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="L24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:13" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
